--- a/docs/【勤怠管理システム】テーブル定義書.xlsx
+++ b/docs/【勤怠管理システム】テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1157,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1210,6 +1210,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,51 +1243,162 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1293,120 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1752,23 +1755,23 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
@@ -1789,21 +1792,21 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -1824,21 +1827,21 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -1964,25 +1967,25 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -2003,21 +2006,21 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -2176,27 +2179,27 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="20" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -2217,27 +2220,27 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21">
         <v>44111</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -2601,99 +2604,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="78" t="str">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="68" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="26" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="47" t="str">
+      <c r="W1" s="28"/>
+      <c r="X1" s="29" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="35">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="30">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="26" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="47">
+      <c r="W2" s="28"/>
+      <c r="X2" s="29">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="26" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="35">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="30">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="19" t="s">
         <v>102</v>
       </c>
       <c r="M4" s="12"/>
@@ -2794,682 +2797,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="52" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="53"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="35"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="10"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
-      <c r="B7" s="54">
+      <c r="B7" s="36">
         <v>1</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39">
         <v>44111</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="30" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="63"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="47"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="63"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="47"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="10"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="63"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="47"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="63"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="47"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="10"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="63"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="47"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="10"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="63"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="47"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="10"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="63"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="47"/>
       <c r="AF13" s="12"/>
       <c r="AG13" s="10"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="63"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="47"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="10"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="63"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="47"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="10"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="63"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="47"/>
       <c r="AF16" s="12"/>
       <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="70"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="54"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="63"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="47"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="63"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="47"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="10"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="63"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="47"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="10"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="63"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="47"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="10"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="63"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="47"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="10"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="63"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="47"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="10"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="77"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="10"/>
     </row>
@@ -3655,174 +3658,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="62" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="26" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="35" t="str">
+      <c r="W1" s="28"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="35">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="30">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="26" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="26" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="35">
+      <c r="W2" s="28"/>
+      <c r="X2" s="30">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="35">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="30">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3">
         <v>1</v>
       </c>
@@ -3835,42 +3838,42 @@
       <c r="P4" s="3">
         <v>4</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
@@ -3878,875 +3881,863 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="46">
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="76">
         <v>4</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="46">
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="76">
         <v>50</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="46">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="76">
         <v>100</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="46">
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="76">
         <v>20</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="46">
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="76">
         <v>20</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
     </row>
     <row r="10" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="46">
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="76">
         <v>1</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28">
+      <c r="V10" s="76"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74">
         <v>0</v>
       </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="33" t="s">
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="46">
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="76">
         <v>50</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="17"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="17"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="46">
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="76">
         <v>50</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="7"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="7"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="7"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="7"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="7"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="7"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="7"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="7"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="7"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="7"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="7"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A3:A4"/>
@@ -4763,6 +4754,14 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AB2:AC2"/>
@@ -4819,7 +4818,6 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="G12:K12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
@@ -4831,6 +4829,15 @@
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="AC16:AG16"/>
     <mergeCell ref="B17:F17"/>
@@ -4873,7 +4880,6 @@
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W24:X24"/>
     <mergeCell ref="Y22:AB22"/>
     <mergeCell ref="AC22:AG22"/>
     <mergeCell ref="B23:F23"/>
@@ -4888,10 +4894,6 @@
     <mergeCell ref="Q22:T22"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="W22:X22"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:U1"/>
-    <mergeCell ref="K2:U2"/>
     <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="AC26:AG26"/>
     <mergeCell ref="B26:F26"/>
@@ -4912,6 +4914,7 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4936,174 +4939,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="62" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="26" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="35" t="str">
+      <c r="W1" s="28"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="35">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="30">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="26" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="26" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="35">
+      <c r="W2" s="28"/>
+      <c r="X2" s="30">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="35">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="30">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="5">
         <v>1</v>
       </c>
@@ -5116,42 +5119,42 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
@@ -5159,46 +5162,46 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="46">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="76">
         <v>4</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="7" t="s">
         <v>20</v>
       </c>
@@ -5206,46 +5209,46 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="46">
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="76">
         <v>4</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="17" t="s">
         <v>20</v>
       </c>
@@ -5253,800 +5256,812 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="46">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="76">
         <v>2</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="46">
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="76">
         <v>2</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="7"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="46">
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="76">
         <v>5</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="7"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="46">
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="76">
         <v>5</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="7"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="46">
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="76">
         <v>5</v>
       </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="7"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="46">
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="76">
         <v>5</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="7"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="46">
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="76">
         <v>5</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="7"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="46">
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="76">
         <v>50</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="28" t="s">
+      <c r="V14" s="76"/>
+      <c r="W14" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="17"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="46">
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="76">
         <v>50</v>
       </c>
-      <c r="V15" s="46"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="7"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="17"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="46">
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="76">
         <v>50</v>
       </c>
-      <c r="V17" s="46"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="7"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="7"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="7"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="7"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="7"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="7"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="7"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="7"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="7"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="177">
@@ -6071,6 +6086,9 @@
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
@@ -6108,9 +6126,6 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
@@ -6182,7 +6197,6 @@
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="W19:X19"/>
     <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y24:AB24"/>
     <mergeCell ref="AC24:AG24"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:K23"/>
@@ -6227,6 +6241,7 @@
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6251,174 +6266,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="62" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="26" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="35" t="str">
+      <c r="W1" s="28"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="35">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="30">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="26" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="26" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="35">
+      <c r="W2" s="28"/>
+      <c r="X2" s="30">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="35">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="30">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34" t="s">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="5">
         <v>1</v>
       </c>
@@ -6431,42 +6446,42 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
@@ -6474,46 +6489,46 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="46">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="76">
         <v>4</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="7" t="s">
         <v>28</v>
       </c>
@@ -6521,46 +6536,46 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="46">
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="76">
         <v>4</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="17" t="s">
         <v>21</v>
       </c>
@@ -6568,873 +6583,869 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="46">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="76">
         <v>2</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="7"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="46">
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="76">
         <v>5</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="7"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="46">
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="76">
         <v>6</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="7"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="46">
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="76">
         <v>6</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="7"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="46">
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="76">
         <v>50</v>
       </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="28" t="s">
+      <c r="V11" s="76"/>
+      <c r="W11" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="7"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="46">
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="76">
         <v>200</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="28" t="s">
+      <c r="V12" s="76"/>
+      <c r="W12" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
     </row>
     <row r="13" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="46">
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="76">
         <v>1</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28">
+      <c r="V13" s="76"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74">
         <v>0</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="33" t="s">
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="46">
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="76">
         <v>50</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="17"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="17"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="46">
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="76">
         <v>50</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="7"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="7"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="7"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="7"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="7"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="7"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="7"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="7"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="7"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="7"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:V15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="AC15:AG15"/>
@@ -7468,6 +7479,7 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="G3:K4"/>
@@ -7483,7 +7495,6 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:U2"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AC8:AG8"/>
@@ -7545,6 +7556,10 @@
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:V15"/>
     <mergeCell ref="AC19:AG19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:K20"/>

--- a/docs/【勤怠管理システム】テーブル定義書.xlsx
+++ b/docs/【勤怠管理システム】テーブル定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2554EB-854A-463E-B000-2E4ED14EA29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="370" windowWidth="11120" windowHeight="8860" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="勤務報告書_日次情報" sheetId="2" r:id="rId4"/>
     <sheet name="勤務報告書_月次情報" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -728,11 +727,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザ：tinyintの桁数指定を削除
+勤務報告書_月次情報：tinyintの桁数指定を削除</t>
+    <rPh sb="12" eb="14">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1158,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1411,6 +1431,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,29 +1714,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="3.58203125" style="1"/>
+    <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.58203125" style="1"/>
+    <col min="16" max="18" width="3.625" style="1"/>
     <col min="19" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.58203125" style="1"/>
+    <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="10"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="10"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1748,7 +1769,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1785,7 +1806,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1820,7 +1841,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="10"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1855,7 +1876,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1890,7 +1911,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1925,7 +1946,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1960,7 +1981,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="10"/>
     </row>
-    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1999,7 +2020,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="10"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2034,7 +2055,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="10"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2069,7 +2090,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="10"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2104,7 +2125,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2139,7 +2160,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2172,7 +2193,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2199,7 +2220,9 @@
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="22"/>
+      <c r="U16" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
@@ -2213,7 +2236,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="10"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2240,7 +2263,9 @@
       </c>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
-      <c r="U17" s="22"/>
+      <c r="U17" s="21">
+        <v>44117</v>
+      </c>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
@@ -2254,7 +2279,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="10"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2289,7 +2314,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2324,7 +2349,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="10"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2359,7 +2384,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2394,7 +2419,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2429,7 +2454,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2464,7 +2489,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="10"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2499,7 +2524,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="10"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2534,7 +2559,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="10"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2590,23 +2615,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="23" width="3.58203125" style="1"/>
-    <col min="24" max="27" width="2.83203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.58203125" style="1"/>
-    <col min="30" max="33" width="2.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
@@ -2656,7 +2681,7 @@
       <c r="AF1" s="71"/>
       <c r="AG1" s="71"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2682,9 +2707,9 @@
         <v>3</v>
       </c>
       <c r="W2" s="71"/>
-      <c r="X2" s="72">
+      <c r="X2" s="72" t="str">
         <f>表紙!U16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y2" s="72"/>
       <c r="Z2" s="72"/>
@@ -2695,13 +2720,13 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="73">
         <f>表紙!U17</f>
-        <v>0</v>
+        <v>44117</v>
       </c>
       <c r="AE2" s="71"/>
       <c r="AF2" s="71"/>
       <c r="AG2" s="71"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2736,7 +2761,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
         <v>102</v>
@@ -2763,7 +2788,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2798,7 +2823,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="10"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="57" t="s">
         <v>103</v>
@@ -2841,7 +2866,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="62">
         <v>1</v>
@@ -2884,16 +2909,22 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="47">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="49">
+        <v>44117</v>
+      </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="85" t="s">
+        <v>108</v>
+      </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
@@ -2913,13 +2944,15 @@
       <c r="Z8" s="50"/>
       <c r="AA8" s="50"/>
       <c r="AB8" s="50"/>
-      <c r="AC8" s="51"/>
+      <c r="AC8" s="51" t="s">
+        <v>41</v>
+      </c>
       <c r="AD8" s="52"/>
       <c r="AE8" s="53"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="47"/>
       <c r="C9" s="48"/>
@@ -2954,7 +2987,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="10"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -2989,7 +3022,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="10"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
@@ -3024,7 +3057,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="10"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="47"/>
       <c r="C12" s="48"/>
@@ -3059,7 +3092,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="10"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="47"/>
       <c r="C13" s="48"/>
@@ -3094,7 +3127,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="47"/>
       <c r="C14" s="48"/>
@@ -3129,7 +3162,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="47"/>
       <c r="C15" s="48"/>
@@ -3164,7 +3197,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
@@ -3199,7 +3232,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="10"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="47"/>
       <c r="C17" s="48"/>
@@ -3234,7 +3267,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="10"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="47"/>
       <c r="C18" s="48"/>
@@ -3269,7 +3302,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="47"/>
       <c r="C19" s="48"/>
@@ -3304,7 +3337,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="10"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="47"/>
       <c r="C20" s="48"/>
@@ -3339,7 +3372,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="47"/>
       <c r="C21" s="48"/>
@@ -3374,7 +3407,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="10"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="47"/>
       <c r="C22" s="48"/>
@@ -3409,7 +3442,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="47"/>
       <c r="C23" s="48"/>
@@ -3444,7 +3477,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="10"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -3479,7 +3512,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="10"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3514,7 +3547,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="10"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3645,22 +3678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
@@ -3712,7 +3745,7 @@
       <c r="AF1" s="71"/>
       <c r="AG1" s="71"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3742,9 +3775,9 @@
         <v>3</v>
       </c>
       <c r="W2" s="71"/>
-      <c r="X2" s="73">
+      <c r="X2" s="73" t="str">
         <f>表紙!U16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
@@ -3755,13 +3788,13 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="73">
         <f>表紙!U17</f>
-        <v>0</v>
+        <v>44117</v>
       </c>
       <c r="AE2" s="71"/>
       <c r="AF2" s="71"/>
       <c r="AG2" s="71"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3849,7 @@
       <c r="AF3" s="75"/>
       <c r="AG3" s="75"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -3859,7 +3892,7 @@
       <c r="AF4" s="75"/>
       <c r="AG4" s="75"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3906,7 +3939,7 @@
       <c r="AF5" s="74"/>
       <c r="AG5" s="74"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -3951,7 +3984,7 @@
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -3996,7 +4029,7 @@
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4041,7 +4074,7 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4086,7 +4119,7 @@
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
     </row>
-    <row r="10" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -4115,9 +4148,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="52"/>
       <c r="T10" s="79"/>
-      <c r="U10" s="78">
-        <v>1</v>
-      </c>
+      <c r="U10" s="78"/>
       <c r="V10" s="78"/>
       <c r="W10" s="77"/>
       <c r="X10" s="77"/>
@@ -4135,7 +4166,7 @@
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -4178,7 +4209,7 @@
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -4223,7 +4254,7 @@
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -4266,7 +4297,7 @@
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -4311,7 +4342,7 @@
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -4354,7 +4385,7 @@
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -4389,7 +4420,7 @@
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -4424,7 +4455,7 @@
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -4459,7 +4490,7 @@
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -4494,7 +4525,7 @@
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -4529,7 +4560,7 @@
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -4564,7 +4595,7 @@
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -4599,7 +4630,7 @@
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -4634,7 +4665,7 @@
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
@@ -4669,7 +4700,7 @@
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -4704,7 +4735,7 @@
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -4926,22 +4957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
@@ -4993,7 +5024,7 @@
       <c r="AF1" s="71"/>
       <c r="AG1" s="71"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -5023,9 +5054,9 @@
         <v>3</v>
       </c>
       <c r="W2" s="71"/>
-      <c r="X2" s="73">
+      <c r="X2" s="73" t="str">
         <f>表紙!U16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
@@ -5036,13 +5067,13 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="73">
         <f>表紙!U17</f>
-        <v>0</v>
+        <v>44117</v>
       </c>
       <c r="AE2" s="71"/>
       <c r="AF2" s="71"/>
       <c r="AG2" s="71"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5128,7 @@
       <c r="AF3" s="75"/>
       <c r="AG3" s="75"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -5140,7 +5171,7 @@
       <c r="AF4" s="75"/>
       <c r="AG4" s="75"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5187,7 +5218,7 @@
       <c r="AF5" s="74"/>
       <c r="AG5" s="74"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -5234,7 +5265,7 @@
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -5281,7 +5312,7 @@
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -5328,7 +5359,7 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -5375,7 +5406,7 @@
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -5422,7 +5453,7 @@
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -5469,7 +5500,7 @@
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -5516,7 +5547,7 @@
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -5563,7 +5594,7 @@
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -5610,7 +5641,7 @@
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -5655,7 +5686,7 @@
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -5698,7 +5729,7 @@
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -5743,7 +5774,7 @@
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -5786,7 +5817,7 @@
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -5821,7 +5852,7 @@
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -5856,7 +5887,7 @@
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -5891,7 +5922,7 @@
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -5926,7 +5957,7 @@
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -5961,7 +5992,7 @@
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
@@ -5996,7 +6027,7 @@
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -6031,7 +6062,7 @@
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -6253,22 +6284,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:F15"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
@@ -6320,7 +6351,7 @@
       <c r="AF1" s="71"/>
       <c r="AG1" s="71"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6350,9 +6381,9 @@
         <v>3</v>
       </c>
       <c r="W2" s="71"/>
-      <c r="X2" s="73">
+      <c r="X2" s="73" t="str">
         <f>表紙!U16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
@@ -6363,13 +6394,13 @@
       <c r="AC2" s="71"/>
       <c r="AD2" s="73">
         <f>表紙!U17</f>
-        <v>0</v>
+        <v>44117</v>
       </c>
       <c r="AE2" s="71"/>
       <c r="AF2" s="71"/>
       <c r="AG2" s="71"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -6424,7 +6455,7 @@
       <c r="AF3" s="75"/>
       <c r="AG3" s="75"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -6467,7 +6498,7 @@
       <c r="AF4" s="75"/>
       <c r="AG4" s="75"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6514,7 +6545,7 @@
       <c r="AF5" s="74"/>
       <c r="AG5" s="74"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -6561,7 +6592,7 @@
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -6608,7 +6639,7 @@
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -6653,7 +6684,7 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -6698,7 +6729,7 @@
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -6743,7 +6774,7 @@
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -6790,7 +6821,7 @@
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -6837,7 +6868,7 @@
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
     </row>
-    <row r="13" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -6866,9 +6897,7 @@
       <c r="R13" s="77"/>
       <c r="S13" s="77"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="78">
-        <v>1</v>
-      </c>
+      <c r="U13" s="78"/>
       <c r="V13" s="78"/>
       <c r="W13" s="77"/>
       <c r="X13" s="77"/>
@@ -6886,7 +6915,7 @@
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -6931,7 +6960,7 @@
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -6974,7 +7003,7 @@
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -7019,7 +7048,7 @@
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -7062,7 +7091,7 @@
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -7097,7 +7126,7 @@
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="82"/>
       <c r="C19" s="83"/>
@@ -7132,7 +7161,7 @@
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="82"/>
       <c r="C20" s="83"/>
@@ -7167,7 +7196,7 @@
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="82"/>
       <c r="C21" s="83"/>
@@ -7202,7 +7231,7 @@
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="82"/>
       <c r="C22" s="83"/>
@@ -7237,7 +7266,7 @@
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -7272,7 +7301,7 @@
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
@@ -7307,7 +7336,7 @@
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -7342,7 +7371,7 @@
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -7377,7 +7406,7 @@
       <c r="AF26" s="74"/>
       <c r="AG26" s="74"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
@@ -7412,7 +7441,7 @@
       <c r="AF27" s="74"/>
       <c r="AG27" s="74"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>

--- a/docs/【勤怠管理システム】テーブル定義書.xlsx
+++ b/docs/【勤怠管理システム】テーブル定義書.xlsx
@@ -13,8 +13,9 @@
     <sheet name="勤務報告書_月次情報" sheetId="6" r:id="rId9"/>
     <sheet name="取引先マスタ" sheetId="7" r:id="rId10"/>
     <sheet name="ロケーションマスタ" sheetId="8" r:id="rId11"/>
-    <sheet name="ロケーション情報" sheetId="9" r:id="rId12"/>
-    <sheet name="ユニット情報" sheetId="10" r:id="rId13"/>
+    <sheet name="サイトマスタ" sheetId="9" r:id="rId12"/>
+    <sheet name="サイト情報" sheetId="10" r:id="rId13"/>
+    <sheet name="ユニット情報" sheetId="11" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -349,40 +350,37 @@
     <t>取引先マスタ</t>
   </si>
   <si>
-    <t>suppliers</t>
+    <t>supplier</t>
   </si>
   <si>
     <t>取引先コード</t>
   </si>
   <si>
-    <t>suppliers_code</t>
+    <t>supplier_code</t>
   </si>
   <si>
     <t>取引先名称</t>
   </si>
   <si>
-    <t>suppliers_name</t>
+    <t>supplier_name</t>
   </si>
   <si>
     <t>適用開始日</t>
   </si>
   <si>
-    <t>suppliers_begin_date</t>
+    <t>begin_date</t>
   </si>
   <si>
     <t>適用終了日</t>
   </si>
   <si>
-    <t>supplies_end_date</t>
+    <t>end_date</t>
   </si>
   <si>
     <t>ロケーションマスタ</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>supplier_code</t>
+    <t>Location</t>
   </si>
   <si>
     <t>ロケーションコード</t>
@@ -397,16 +395,19 @@
     <t>location_name</t>
   </si>
   <si>
-    <t>location_begin_date</t>
-  </si>
-  <si>
-    <t>location_end_date</t>
+    <t>サイトマスタ</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>サイト情報</t>
   </si>
   <si>
     <t>ロケーション情報</t>
   </si>
   <si>
-    <t>location_info</t>
+    <t>site_info</t>
   </si>
   <si>
     <t>定時間(8:00形式)</t>
@@ -1022,7 +1023,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1319,6 +1320,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2568,7 +2572,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2579,12 +2583,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2595,6 +2599,22 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="5">
         <v>124</v>
       </c>
     </row>
@@ -2610,22 +2630,23 @@
     <hyperlink ref="D18" location="'勤務報告書_月次情報'!R1C1" tooltip="" display="勤務報告書_月次情報"/>
     <hyperlink ref="D20" location="'取引先マスタ'!R1C1" tooltip="" display="取引先マスタ"/>
     <hyperlink ref="D22" location="'ロケーションマスタ'!R1C1" tooltip="" display="ロケーションマスタ"/>
-    <hyperlink ref="D24" location="'ロケーション情報'!R1C1" tooltip="" display="ロケーション情報"/>
-    <hyperlink ref="D26" location="'ユニット情報'!R1C1" tooltip="" display="ユニット情報"/>
+    <hyperlink ref="D24" location="'サイトマスタ'!R1C1" tooltip="" display="サイトマスタ"/>
+    <hyperlink ref="D26" location="'サイト情報'!R1C1" tooltip="" display="サイト情報"/>
+    <hyperlink ref="D28" location="'ユニット情報'!R1C1" tooltip="" display="ユニット情報"/>
   </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="33" width="3.67188" style="105" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="105" customWidth="1"/>
+    <col min="1" max="33" width="3.67188" style="102" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -2645,7 +2666,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -2694,7 +2715,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -2832,14 +2853,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -2859,7 +2880,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -2879,14 +2900,849 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" t="s" s="92">
+        <v>43</v>
+      </c>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="94">
+        <v>4</v>
+      </c>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="90">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="91">
+        <v>41</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" t="s" s="91">
+        <v>42</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" t="s" s="92">
+        <v>43</v>
+      </c>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="94">
+        <v>4</v>
+      </c>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="90">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="91">
+        <v>121</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" t="s" s="103">
+        <v>88</v>
+      </c>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="94">
+        <v>5</v>
+      </c>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="90">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="91">
+        <v>122</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" t="s" s="91">
+        <v>123</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="94">
+        <v>5</v>
+      </c>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="90">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>74</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" t="s" s="91">
+        <v>75</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="94">
+        <v>5</v>
+      </c>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="90">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="91">
+        <v>76</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" t="s" s="91">
+        <v>77</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="94">
+        <v>5</v>
+      </c>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="90">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s" s="91">
+        <v>78</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" t="s" s="91">
+        <v>79</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="94">
+        <v>5</v>
+      </c>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AG4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="33" width="3.67188" style="106" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="106" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="31">
+        <f>'表紙'!O10</f>
+        <v>16</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" t="s" s="37">
+        <v>28</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" t="s" s="85">
+        <v>124</v>
+      </c>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" t="s" s="37">
+        <v>9</v>
+      </c>
+      <c r="W1" s="38"/>
+      <c r="X1" t="s" s="37">
+        <f>'表紙'!M16</f>
+        <v>17</v>
+      </c>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="39">
+        <f>'表紙'!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" t="s" s="37">
+        <v>29</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" t="s" s="85">
+        <v>125</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" t="s" s="37">
+        <v>18</v>
+      </c>
+      <c r="W2" s="38"/>
+      <c r="X2" t="s" s="37">
+        <f>'表紙'!U16</f>
+        <v>19</v>
+      </c>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39">
+        <f>'表紙'!U17</f>
+        <v>44161</v>
+      </c>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="87">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="87">
+        <v>32</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" t="s" s="87">
+        <v>33</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" t="s" s="87">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s" s="87">
+        <v>35</v>
+      </c>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" t="s" s="87">
+        <v>36</v>
+      </c>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" t="s" s="87">
+        <v>37</v>
+      </c>
+      <c r="V3" s="88"/>
+      <c r="W3" t="s" s="87">
+        <v>38</v>
+      </c>
+      <c r="X3" s="88"/>
+      <c r="Y3" t="s" s="87">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" t="s" s="87">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89">
+        <v>1</v>
+      </c>
+      <c r="N4" s="89">
+        <v>2</v>
+      </c>
+      <c r="O4" s="89">
+        <v>3</v>
+      </c>
+      <c r="P4" s="89">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="90">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="91">
+        <v>126</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" t="s" s="91">
+        <v>127</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" t="s" s="92">
+        <v>43</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="94">
+        <v>4</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="90">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="91">
+        <v>102</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" t="s" s="91">
+        <v>103</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -10290,14 +11146,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -10317,7 +11173,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="94">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -10337,22 +11193,20 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
-      <c r="L6" t="s" s="92">
-        <v>43</v>
-      </c>
+      <c r="L6" s="95"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -10364,7 +11218,7 @@
       <c r="S6" s="95"/>
       <c r="T6" s="95"/>
       <c r="U6" s="94">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="V6" s="95"/>
       <c r="W6" s="95"/>
@@ -10384,14 +11238,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="91">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" t="s" s="91">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -10409,7 +11263,7 @@
       <c r="S7" s="95"/>
       <c r="T7" s="95"/>
       <c r="U7" s="94">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="V7" s="95"/>
       <c r="W7" s="95"/>
@@ -10429,14 +11283,14 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="91">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" t="s" s="91">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -10470,19 +11324,13 @@
       <c r="AG8" s="74"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="90">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="91">
-        <v>108</v>
-      </c>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
-      <c r="G9" t="s" s="91">
-        <v>118</v>
-      </c>
+      <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
@@ -10492,15 +11340,11 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
-      <c r="Q9" t="s" s="92">
-        <v>44</v>
-      </c>
+      <c r="Q9" s="95"/>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
-      <c r="U9" s="94">
-        <v>8</v>
-      </c>
+      <c r="U9" s="95"/>
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
@@ -10730,12 +11574,777 @@
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AG4"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="33" width="3.67188" style="101" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="31">
+        <f>'表紙'!O10</f>
+        <v>16</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" t="s" s="37">
+        <v>28</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" t="s" s="85">
+        <v>116</v>
+      </c>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" t="s" s="37">
+        <v>9</v>
+      </c>
+      <c r="W1" s="38"/>
+      <c r="X1" t="s" s="37">
+        <f>'表紙'!M16</f>
+        <v>17</v>
+      </c>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="39">
+        <f>'表紙'!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" t="s" s="37">
+        <v>29</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" t="s" s="85">
+        <v>117</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" t="s" s="37">
+        <v>18</v>
+      </c>
+      <c r="W2" s="38"/>
+      <c r="X2" t="s" s="37">
+        <f>'表紙'!U16</f>
+        <v>19</v>
+      </c>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39">
+        <f>'表紙'!U17</f>
+        <v>44161</v>
+      </c>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="87">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="87">
+        <v>32</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" t="s" s="87">
+        <v>33</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" t="s" s="87">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s" s="87">
+        <v>35</v>
+      </c>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" t="s" s="87">
+        <v>36</v>
+      </c>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" t="s" s="87">
+        <v>37</v>
+      </c>
+      <c r="V3" s="88"/>
+      <c r="W3" t="s" s="87">
+        <v>38</v>
+      </c>
+      <c r="X3" s="88"/>
+      <c r="Y3" t="s" s="87">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" t="s" s="87">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89">
+        <v>1</v>
+      </c>
+      <c r="N4" s="89">
+        <v>2</v>
+      </c>
+      <c r="O4" s="89">
+        <v>3</v>
+      </c>
+      <c r="P4" s="89">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="90">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="91">
+        <v>102</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" t="s" s="91">
+        <v>103</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" t="s" s="92">
+        <v>43</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="94">
+        <v>8</v>
+      </c>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="90">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="91">
+        <v>112</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" t="s" s="91">
+        <v>113</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" t="s" s="92">
+        <v>43</v>
+      </c>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="94">
+        <v>4</v>
+      </c>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="90">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="91">
+        <v>106</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" t="s" s="91">
+        <v>107</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="94">
+        <v>8</v>
+      </c>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="90">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="91">
+        <v>108</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" t="s" s="91">
+        <v>109</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" t="s" s="92">
+        <v>44</v>
+      </c>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="94">
+        <v>8</v>
+      </c>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Y7:AB7"/>
     <mergeCell ref="AC7:AG7"/>
@@ -10774,837 +12383,6 @@
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:V9"/>
-  </mergeCells>
-  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="33" width="3.67188" style="101" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="101" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="31">
-        <f>'表紙'!O10</f>
-        <v>16</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" t="s" s="37">
-        <v>28</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" t="s" s="85">
-        <v>119</v>
-      </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" t="s" s="37">
-        <v>9</v>
-      </c>
-      <c r="W1" s="38"/>
-      <c r="X1" t="s" s="37">
-        <f>'表紙'!M16</f>
-        <v>17</v>
-      </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" t="s" s="37">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="39">
-        <f>'表紙'!M17</f>
-        <v>44111</v>
-      </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" t="s" s="85">
-        <v>120</v>
-      </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" t="s" s="37">
-        <v>18</v>
-      </c>
-      <c r="W2" s="38"/>
-      <c r="X2" t="s" s="37">
-        <f>'表紙'!U16</f>
-        <v>19</v>
-      </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" t="s" s="37">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39">
-        <f>'表紙'!U17</f>
-        <v>44161</v>
-      </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="87">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="87">
-        <v>32</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" t="s" s="87">
-        <v>33</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" t="s" s="87">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s" s="87">
-        <v>35</v>
-      </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" t="s" s="87">
-        <v>36</v>
-      </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" t="s" s="87">
-        <v>37</v>
-      </c>
-      <c r="V3" s="88"/>
-      <c r="W3" t="s" s="87">
-        <v>38</v>
-      </c>
-      <c r="X3" s="88"/>
-      <c r="Y3" t="s" s="87">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" t="s" s="87">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89">
-        <v>1</v>
-      </c>
-      <c r="N4" s="89">
-        <v>2</v>
-      </c>
-      <c r="O4" s="89">
-        <v>3</v>
-      </c>
-      <c r="P4" s="89">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="90">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="91">
-        <v>102</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" t="s" s="91">
-        <v>112</v>
-      </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" t="s" s="92">
-        <v>43</v>
-      </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="94">
-        <v>8</v>
-      </c>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="90">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s" s="91">
-        <v>113</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" t="s" s="91">
-        <v>114</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" t="s" s="92">
-        <v>43</v>
-      </c>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="94">
-        <v>4</v>
-      </c>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="90">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s" s="91">
-        <v>41</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" t="s" s="91">
-        <v>42</v>
-      </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" t="s" s="92">
-        <v>43</v>
-      </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="94">
-        <v>50</v>
-      </c>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="90">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s" s="91">
-        <v>121</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" t="s" s="102">
-        <v>88</v>
-      </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="94">
-        <v>5</v>
-      </c>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="90">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="91">
-        <v>122</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" t="s" s="91">
-        <v>123</v>
-      </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="94">
-        <v>5</v>
-      </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="90">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s" s="91">
-        <v>74</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" t="s" s="91">
-        <v>75</v>
-      </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="94">
-        <v>5</v>
-      </c>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="90">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s" s="91">
-        <v>76</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" t="s" s="91">
-        <v>77</v>
-      </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="94">
-        <v>5</v>
-      </c>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="90">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s" s="91">
-        <v>78</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" t="s" s="91">
-        <v>79</v>
-      </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" t="s" s="92">
-        <v>44</v>
-      </c>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="94">
-        <v>5</v>
-      </c>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:U1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:U2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AG4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="Q15:T15"/>
@@ -11619,6 +12397,30 @@
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/docs/【勤怠管理システム】テーブル定義書.xlsx
+++ b/docs/【勤怠管理システム】テーブル定義書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -377,74 +377,83 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>ロケーションマスタ</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>ロケーションコード</t>
-  </si>
-  <si>
-    <t>location_code</t>
-  </si>
-  <si>
-    <t>ロケーション名称</t>
-  </si>
-  <si>
-    <t>location_name</t>
-  </si>
-  <si>
-    <t>サイトマスタ</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>サイト情報</t>
-  </si>
-  <si>
-    <t>ロケーション情報</t>
-  </si>
-  <si>
-    <t>site_info</t>
-  </si>
-  <si>
-    <t>定時間(8:00形式)</t>
-  </si>
-  <si>
-    <t>定時間(8.0形式)</t>
-  </si>
-  <si>
-    <t>teiji_decimal_number</t>
-  </si>
-  <si>
-    <t>ユニット情報</t>
-  </si>
-  <si>
-    <t>unit_info</t>
-  </si>
-  <si>
-    <t>ユニット長社員番号</t>
-  </si>
-  <si>
-    <t>leader_user_id</t>
-  </si>
-  <si>
-    <t>メンバー社員番号</t>
-  </si>
-  <si>
-    <t>member_user_id</t>
-  </si>
-  <si>
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>unit_deleted</t>
+    <t>supplier_deleted</t>
   </si>
   <si>
     <t>0：未削除
 1：削除済</t>
+  </si>
+  <si>
+    <t>ロケーションマスタ</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ロケーションコード</t>
+  </si>
+  <si>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>ロケーション名称</t>
+  </si>
+  <si>
+    <t>location_name</t>
+  </si>
+  <si>
+    <t>location_deleted</t>
+  </si>
+  <si>
+    <t>サイトマスタ</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>site_deleted</t>
+  </si>
+  <si>
+    <t>サイト情報</t>
+  </si>
+  <si>
+    <t>ロケーション情報</t>
+  </si>
+  <si>
+    <t>site_info</t>
+  </si>
+  <si>
+    <t>定時間(8:00形式)</t>
+  </si>
+  <si>
+    <t>定時間(8.0形式)</t>
+  </si>
+  <si>
+    <t>teiji_decimal_number</t>
+  </si>
+  <si>
+    <t>ユニット情報</t>
+  </si>
+  <si>
+    <t>unit_info</t>
+  </si>
+  <si>
+    <t>ユニット長社員番号</t>
+  </si>
+  <si>
+    <t>leader_user_id</t>
+  </si>
+  <si>
+    <t>メンバー社員番号</t>
+  </si>
+  <si>
+    <t>member_user_id</t>
+  </si>
+  <si>
+    <t>unit_deleted</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2565,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2567,12 +2576,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2583,12 +2592,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2599,12 +2608,12 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2615,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2675,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -2715,7 +2724,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -2744,7 +2753,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -2880,7 +2889,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -2900,14 +2909,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -2994,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="91">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -3039,14 +3048,14 @@
         <v>5</v>
       </c>
       <c r="B9" t="s" s="91">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" t="s" s="91">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -3501,7 +3510,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -3550,7 +3559,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -3579,7 +3588,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -3688,14 +3697,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -3782,14 +3791,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="91">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" t="s" s="91">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -3829,14 +3838,14 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="91">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" t="s" s="91">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -3853,9 +3862,7 @@
       <c r="R8" s="95"/>
       <c r="S8" s="95"/>
       <c r="T8" s="95"/>
-      <c r="U8" s="94">
-        <v>1</v>
-      </c>
+      <c r="U8" s="95"/>
       <c r="V8" s="95"/>
       <c r="W8" s="95"/>
       <c r="X8" s="95"/>
@@ -3866,7 +3873,7 @@
       <c r="AA8" s="95"/>
       <c r="AB8" s="95"/>
       <c r="AC8" t="s" s="73">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
@@ -4805,7 +4812,7 @@
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="27">
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -5261,7 +5268,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -6337,7 +6344,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -7614,7 +7621,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -8939,7 +8946,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -10330,7 +10337,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -10466,7 +10473,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -10616,14 +10623,20 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+    <row r="9" ht="34.5" customHeight="1">
+      <c r="A9" s="90">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="91">
+        <v>110</v>
+      </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="G9" t="s" s="91">
+        <v>111</v>
+      </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
@@ -10633,7 +10646,9 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
-      <c r="Q9" s="95"/>
+      <c r="Q9" t="s" s="92">
+        <v>55</v>
+      </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
@@ -10641,11 +10656,15 @@
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
+      <c r="Y9" s="94">
+        <v>0</v>
+      </c>
       <c r="Z9" s="95"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
-      <c r="AC9" s="74"/>
+      <c r="AC9" t="s" s="73">
+        <v>112</v>
+      </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
@@ -10959,7 +10978,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -11008,7 +11027,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -11037,7 +11056,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -11146,14 +11165,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -11193,14 +11212,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -11323,14 +11342,20 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+    <row r="9" ht="34.5" customHeight="1">
+      <c r="A9" s="90">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="91">
+        <v>110</v>
+      </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="G9" t="s" s="91">
+        <v>119</v>
+      </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
@@ -11340,7 +11365,9 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
-      <c r="Q9" s="95"/>
+      <c r="Q9" t="s" s="92">
+        <v>55</v>
+      </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
@@ -11348,11 +11375,15 @@
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
+      <c r="Y9" s="94">
+        <v>0</v>
+      </c>
       <c r="Z9" s="95"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
-      <c r="AC9" s="74"/>
+      <c r="AC9" t="s" s="73">
+        <v>112</v>
+      </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
@@ -11563,14 +11594,11 @@
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AC8:AG8"/>
@@ -11624,10 +11652,13 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
   </mergeCells>
   <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -11666,7 +11697,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -11715,7 +11746,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -11744,7 +11775,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="39">
         <f>'表紙'!U17</f>
-        <v>44161</v>
+        <v>44172</v>
       </c>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -11880,7 +11911,7 @@
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -11900,14 +11931,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -12032,14 +12063,20 @@
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+    <row r="9" ht="34.5" customHeight="1">
+      <c r="A9" s="90">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="91">
+        <v>110</v>
+      </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="G9" t="s" s="91">
+        <v>122</v>
+      </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
@@ -12049,7 +12086,9 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
-      <c r="Q9" s="95"/>
+      <c r="Q9" t="s" s="92">
+        <v>55</v>
+      </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
@@ -12057,11 +12096,15 @@
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
+      <c r="Y9" s="94">
+        <v>0</v>
+      </c>
       <c r="Z9" s="95"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
-      <c r="AC9" s="74"/>
+      <c r="AC9" t="s" s="73">
+        <v>112</v>
+      </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
@@ -12334,12 +12377,9 @@
     <mergeCell ref="AC12:AG12"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AC8:AG8"/>
@@ -12400,19 +12440,15 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U9:V9"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:F8"/>
@@ -12421,6 +12457,13 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
   </mergeCells>
   <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/docs/【勤怠管理システム】テーブル定義書.xlsx
+++ b/docs/【勤怠管理システム】テーブル定義書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>supplier_deleted</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>0：未削除
@@ -2565,7 +2568,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2576,12 +2579,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2592,12 +2595,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2608,12 +2611,12 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2624,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2678,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -2724,7 +2727,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -2909,14 +2912,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -3003,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="91">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -3048,14 +3051,14 @@
         <v>5</v>
       </c>
       <c r="B9" t="s" s="91">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" t="s" s="91">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -3510,7 +3513,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -3559,7 +3562,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -3697,14 +3700,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -3791,14 +3794,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="91">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" t="s" s="91">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -3845,7 +3848,7 @@
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" t="s" s="91">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -3857,7 +3860,7 @@
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
       <c r="Q8" t="s" s="92">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="R8" s="95"/>
       <c r="S8" s="95"/>
@@ -3873,7 +3876,7 @@
       <c r="AA8" s="95"/>
       <c r="AB8" s="95"/>
       <c r="AC8" t="s" s="73">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
@@ -10647,7 +10650,7 @@
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
       <c r="Q9" t="s" s="92">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
@@ -10663,7 +10666,7 @@
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
       <c r="AC9" t="s" s="73">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
@@ -10978,7 +10981,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -11027,7 +11030,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -11165,14 +11168,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="91">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" t="s" s="91">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
@@ -11212,14 +11215,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -11354,7 +11357,7 @@
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" t="s" s="91">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -11366,7 +11369,7 @@
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
       <c r="Q9" t="s" s="92">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
@@ -11382,7 +11385,7 @@
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
       <c r="AC9" t="s" s="73">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
@@ -11697,7 +11700,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" t="s" s="85">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
@@ -11746,7 +11749,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" t="s" s="85">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="86"/>
@@ -11931,14 +11934,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="91">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" t="s" s="91">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -12075,7 +12078,7 @@
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" t="s" s="91">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -12087,7 +12090,7 @@
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
       <c r="Q9" t="s" s="92">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="R9" s="95"/>
       <c r="S9" s="95"/>
@@ -12103,7 +12106,7 @@
       <c r="AA9" s="95"/>
       <c r="AB9" s="95"/>
       <c r="AC9" t="s" s="73">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
